--- a/biology/Médecine/Cellule_de_Reed-Sternberg/Cellule_de_Reed-Sternberg.xlsx
+++ b/biology/Médecine/Cellule_de_Reed-Sternberg/Cellule_de_Reed-Sternberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cellules de Reed-Sternberg sont de grandes cellules (environ 50 μm) malignes caractéristiques des lymphomes de Hodgkin et infiltrant les ganglions.
 Ces cellules sont caractérisées par un noyau volumineux bi- ou polylobé, la présence d’un nucléole, souvent unique, mais volumineux, d’une basophilie soutenue.
 Plus la maladie est avancée et plus ces cellules sont retrouvées en nombre important.
-Elles ont été décrites pour la première fois en 1898 par Carl Sternberg[1] puis par Dorothy Reed (1874-1964) en 1902, d’où leur nom de cellules de Sternberg ou de Reed-Sternberg[2].
+Elles ont été décrites pour la première fois en 1898 par Carl Sternberg puis par Dorothy Reed (1874-1964) en 1902, d’où leur nom de cellules de Sternberg ou de Reed-Sternberg.
 Il existe une variante de la cellule de Reed-Sternberg : la cellule de Hodgkin. La cellule de Hodgkin est de grande taille à noyau unique non segmenté.
 </t>
         </is>
